--- a/LTE Metadata Checklist.xlsx
+++ b/LTE Metadata Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\schemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4052F4DB-AFF1-4F35-9F91-AF90CAE186DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{94AF28AA-957A-4E5F-A5E6-422BC1CAD362}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="416">
   <si>
     <t>Attribute group</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Broadbalk field</t>
-  </si>
-  <si>
-    <t>http://schema.org/name</t>
   </si>
   <si>
     <t>Title</t>
@@ -1207,6 +1204,90 @@
   </si>
   <si>
     <t>statistics ontology</t>
+  </si>
+  <si>
+    <t>FAO WRB classifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free text description for providing additional descriptive information about the soil </t>
+  </si>
+  <si>
+    <t>The variable being described</t>
+  </si>
+  <si>
+    <t>silt content</t>
+  </si>
+  <si>
+    <t>The minimum sample depth for the variable</t>
+  </si>
+  <si>
+    <t>The maximum sample depth for the variable</t>
+  </si>
+  <si>
+    <t>The measurement sample units for the variable</t>
+  </si>
+  <si>
+    <t>The minimum for the variable</t>
+  </si>
+  <si>
+    <t>The typical for the variable</t>
+  </si>
+  <si>
+    <t>The maximum for the variable</t>
+  </si>
+  <si>
+    <t>The units for the variable</t>
+  </si>
+  <si>
+    <t>The reference year for when the sample was collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if the sample was collected at baseline </t>
+  </si>
+  <si>
+    <t>Indicates if the sample was measured or estimated, e.g. by a model</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Environment Ontology, Agrovoc, Plant Environment Ontology</t>
+  </si>
+  <si>
+    <t>Environment Ontology</t>
+  </si>
+  <si>
+    <t>Luvisol</t>
+  </si>
+  <si>
+    <t>The start year for the period over which values are meaned</t>
+  </si>
+  <si>
+    <t>The end year for the period over which values are meaned</t>
+  </si>
+  <si>
+    <t>The mean value over the period</t>
+  </si>
+  <si>
+    <t>The miminum value over the period</t>
+  </si>
+  <si>
+    <t>the maximum value over the period</t>
+  </si>
+  <si>
+    <t>the value units</t>
+  </si>
+  <si>
+    <t>Environment Ontology, Agrovoc</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -2418,8 +2499,8 @@
   <dimension ref="A1:AD1015"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:L20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2448,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -2472,7 +2553,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.2">
@@ -2546,7 +2627,7 @@
     </row>
     <row r="5" spans="1:12" ht="13.2">
       <c r="A5" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -2556,14 +2637,14 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>26</v>
@@ -2573,7 +2654,7 @@
     </row>
     <row r="6" spans="1:12" ht="92.4">
       <c r="A6" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -2583,14 +2664,14 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>26</v>
@@ -2600,7 +2681,7 @@
     </row>
     <row r="7" spans="1:12" ht="39.6">
       <c r="A7" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -2609,45 +2690,45 @@
         <v>1</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="50"/>
       <c r="L7" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="26.4">
       <c r="A8" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>156</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>20</v>
@@ -2662,7 +2743,7 @@
     </row>
     <row r="9" spans="1:12" ht="13.8">
       <c r="A9" s="118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="117"/>
       <c r="C9" s="119"/>
@@ -2678,7 +2759,7 @@
     </row>
     <row r="10" spans="1:12" ht="92.4">
       <c r="A10" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -2687,47 +2768,47 @@
         <v>1</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="32">
         <v>1</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>26</v>
@@ -2737,19 +2818,19 @@
     </row>
     <row r="12" spans="1:12" ht="66">
       <c r="A12" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="32">
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="16" t="s">
@@ -2757,22 +2838,22 @@
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:12" ht="13.2">
       <c r="A13" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="32">
         <v>1</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="50"/>
@@ -2780,7 +2861,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>26</v>
@@ -2790,26 +2871,26 @@
     </row>
     <row r="14" spans="1:12" ht="13.2">
       <c r="A14" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="32">
         <v>1</v>
       </c>
       <c r="E14" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>221</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J14" s="50" t="s">
         <v>26</v>
@@ -2819,7 +2900,7 @@
     </row>
     <row r="15" spans="1:12" ht="13.2">
       <c r="A15" s="118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="128"/>
       <c r="C15" s="119"/>
@@ -2835,7 +2916,7 @@
     </row>
     <row r="16" spans="1:12" ht="13.2">
       <c r="A16" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
@@ -2844,102 +2925,102 @@
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="21">
         <v>1843</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="36" t="str">
         <f>HYPERLINK("http://www.cropontology.org/terms/CO_715:0000253/","CO_715:0000253")</f>
         <v>CO_715:0000253</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="50"/>
       <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:30" ht="13.2">
       <c r="A17" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="32">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="42" t="str">
         <f t="shared" ref="I17:I18" si="0">HYPERLINK("http://www.cropontology.org/terms/CO_715:0000254/","CO_715:0000254")</f>
         <v>CO_715:0000254</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:30" ht="66">
       <c r="A18" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="32">
         <v>1</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="21">
         <v>1851</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="42" t="str">
         <f t="shared" si="0"/>
         <v>CO_715:0000254</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:30" ht="13.2">
       <c r="A19" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="32">
         <v>1</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="45"/>
@@ -2948,7 +3029,7 @@
     </row>
     <row r="20" spans="1:30" ht="13.2">
       <c r="A20" s="118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="128"/>
       <c r="C20" s="119"/>
@@ -2964,21 +3045,21 @@
     </row>
     <row r="21" spans="1:30" s="105" customFormat="1" ht="13.2">
       <c r="A21" s="99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B21" s="99"/>
       <c r="C21" s="100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="101"/>
       <c r="G21" s="101"/>
       <c r="H21" s="101"/>
       <c r="I21" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>26</v>
@@ -3006,7 +3087,7 @@
     <row r="22" spans="1:30" s="105" customFormat="1" ht="13.2">
       <c r="A22" s="99"/>
       <c r="B22" s="99" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C22" s="100">
         <v>1</v>
@@ -3015,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="99" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F22" s="101"/>
       <c r="G22" s="101"/>
@@ -3023,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>26</v>
@@ -3050,22 +3131,22 @@
     </row>
     <row r="23" spans="1:30" ht="26.4">
       <c r="B23" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="34"/>
       <c r="H23" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>26</v>
@@ -3090,14 +3171,14 @@
     </row>
     <row r="24" spans="1:30" ht="13.2">
       <c r="B24" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="34"/>
@@ -3105,7 +3186,7 @@
         <v>21</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>26</v>
@@ -3130,22 +3211,22 @@
     </row>
     <row r="25" spans="1:30" ht="13.2">
       <c r="B25" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="34"/>
       <c r="H25" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="27" t="s">
         <v>26</v>
@@ -3170,22 +3251,22 @@
     </row>
     <row r="26" spans="1:30" ht="13.2">
       <c r="B26" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="34"/>
       <c r="H26" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>26</v>
@@ -11188,10 +11269,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" s="132" t="s">
         <v>3</v>
@@ -11218,7 +11299,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.2">
@@ -11246,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -11272,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="84"/>
@@ -11288,7 +11369,7 @@
     </row>
     <row r="5" spans="1:13" ht="13.2">
       <c r="A5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="130">
         <v>1</v>
@@ -11297,14 +11378,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="84"/>
       <c r="I5" s="84" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K5" s="82" t="s">
         <v>26</v>
@@ -11312,7 +11393,7 @@
     </row>
     <row r="6" spans="1:13" ht="145.19999999999999">
       <c r="A6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="130">
         <v>1</v>
@@ -11321,17 +11402,17 @@
         <v>1</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H6" s="84"/>
       <c r="I6" s="168" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="82" t="s">
         <v>26</v>
@@ -11339,7 +11420,7 @@
     </row>
     <row r="7" spans="1:13" ht="13.2">
       <c r="A7" s="127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="125"/>
       <c r="C7" s="125"/>
@@ -11356,7 +11437,7 @@
     </row>
     <row r="8" spans="1:13" ht="13.2">
       <c r="A8" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="130">
         <v>1</v>
@@ -11365,63 +11446,63 @@
         <v>1</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="21">
         <v>1843</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="88" t="str">
         <f>HYPERLINK("http://www.cropontology.org/terms/CO_715:0000253/","CO_715:0000253")</f>
         <v>CO_715:0000253</v>
       </c>
       <c r="K8" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.2">
       <c r="A9" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="130">
         <v>1</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="21">
         <v>1925</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="86" t="str">
         <f>HYPERLINK("http://www.cropontology.org/terms/CO_715:0000254/","CO_715:0000254")</f>
         <v>CO_715:0000254</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.2">
       <c r="A10" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" s="130">
         <v>1</v>
       </c>
       <c r="E10" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="84"/>
@@ -11429,7 +11510,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="82" t="s">
         <v>26</v>
@@ -11437,19 +11518,19 @@
     </row>
     <row r="11" spans="1:13" ht="52.8">
       <c r="A11" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D11" s="130">
         <v>1</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H11" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000335","AGRO_00000335")</f>
@@ -11463,101 +11544,101 @@
         <v>AGRO_00000343</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.6">
       <c r="A12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="G12" s="21">
         <v>16</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="86" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_00000195","STATO_00000195")</f>
         <v>STATO_00000195</v>
       </c>
       <c r="K12" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.6">
       <c r="A13" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>242</v>
-      </c>
-      <c r="E13" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>243</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="71"/>
       <c r="I13" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/PATO_0001323/","PATO_0001323")</f>
         <v>PATO_0001323</v>
       </c>
       <c r="K13" s="108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L13" s="82"/>
       <c r="M13" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.4">
       <c r="A14" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="E14" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>328</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="71"/>
       <c r="I14" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000047/","UO_0000047")</f>
         <v>UO_0000047</v>
       </c>
       <c r="K14" s="108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L14" s="82"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="13.2">
       <c r="A15" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="130">
         <v>1</v>
       </c>
       <c r="E15" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="84">
@@ -11565,25 +11646,25 @@
       </c>
       <c r="H15" s="84"/>
       <c r="I15" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000305","AGRO_00000305")</f>
         <v>AGRO_00000305</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.2">
       <c r="A16" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="130">
         <v>1</v>
       </c>
       <c r="E16" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="84">
@@ -11591,26 +11672,26 @@
       </c>
       <c r="H16" s="84"/>
       <c r="I16" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000324","AGRO_00000324")</f>
         <v>AGRO_00000324</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="13.2">
       <c r="A17" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="130">
         <v>1</v>
       </c>
       <c r="E17" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="84">
@@ -11618,26 +11699,26 @@
       </c>
       <c r="H17" s="84"/>
       <c r="I17" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000306","AGRO_00000306")</f>
         <v>AGRO_00000306</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:13" ht="13.2">
       <c r="A18" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D18" s="130">
         <v>1</v>
       </c>
       <c r="E18" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="84">
@@ -11651,115 +11732,115 @@
     </row>
     <row r="19" spans="1:13" ht="26.4">
       <c r="A19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="I19" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000308","AGRO_00000308")</f>
         <v>AGRO_00000308</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="26.4">
       <c r="A20" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="I20" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000307","AGRO_00000307")</f>
         <v>AGRO_00000307</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.4">
       <c r="A21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="I21" s="84" t="s">
         <v>92</v>
-      </c>
-      <c r="I21" s="84" t="s">
-        <v>93</v>
       </c>
       <c r="J21" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000302","AGRO_00000302")</f>
         <v>AGRO_00000302</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="26.4">
       <c r="A22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="I22" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000315","AGRO_00000315")</f>
         <v>AGRO_00000315</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="26.4">
       <c r="A23" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" s="80" t="s">
         <v>332</v>
       </c>
-      <c r="G23" s="80" t="s">
-        <v>333</v>
-      </c>
       <c r="I23" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J23" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000320","AGRO_00000320")</f>
         <v>AGRO_00000320</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="26.4">
       <c r="A24" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="130">
         <v>1</v>
@@ -11771,12 +11852,12 @@
         <v>1</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="97" customFormat="1" ht="13.2">
       <c r="A25" s="153" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="125"/>
       <c r="C25" s="125"/>
@@ -11784,16 +11865,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="125"/>
       <c r="H25" s="125"/>
       <c r="I25" s="125"/>
       <c r="J25" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K25" s="152" t="s">
         <v>26</v>
@@ -11803,7 +11884,7 @@
     </row>
     <row r="26" spans="1:13" ht="39.6">
       <c r="B26" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="130">
         <v>1</v>
@@ -11813,7 +11894,7 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" s="91" t="str">
         <f>HYPERLINK("http://aims.fao.org/aos/agrovoc/c_8412","c_8412")</f>
@@ -11827,18 +11908,18 @@
         <v>AGRO_00000325</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M26" s="80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="13.2">
       <c r="B27" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D27" s="130">
         <v>1</v>
@@ -11847,15 +11928,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="91"/>
       <c r="I27" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K27" s="82" t="s">
         <v>26</v>
@@ -11864,7 +11945,7 @@
     </row>
     <row r="28" spans="1:13" ht="13.2">
       <c r="B28" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="130">
         <v>1</v>
@@ -11873,15 +11954,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="91"/>
       <c r="I28" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K28" s="82" t="s">
         <v>26</v>
@@ -11890,7 +11971,7 @@
     </row>
     <row r="29" spans="1:13" s="97" customFormat="1" ht="13.2">
       <c r="A29" s="127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="121"/>
       <c r="C29" s="125"/>
@@ -11898,16 +11979,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G29" s="125"/>
       <c r="H29" s="139"/>
       <c r="I29" s="121"/>
       <c r="J29" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K29" s="152" t="s">
         <v>26</v>
@@ -11918,7 +11999,7 @@
     <row r="30" spans="1:13" ht="13.2">
       <c r="A30" s="21"/>
       <c r="B30" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" s="130">
         <v>1</v>
@@ -11927,17 +12008,17 @@
         <v>1</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G30" s="109" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H30" s="91"/>
       <c r="I30" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J30" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K30" s="82" t="s">
         <v>26</v>
@@ -11947,24 +12028,24 @@
     <row r="31" spans="1:13" ht="13.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D31" s="130">
         <v>1</v>
       </c>
       <c r="E31" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="91"/>
       <c r="I31" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K31" s="82" t="s">
         <v>26</v>
@@ -11974,24 +12055,24 @@
     <row r="32" spans="1:13" ht="13.2">
       <c r="A32" s="21"/>
       <c r="B32" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D32" s="130">
         <v>1</v>
       </c>
       <c r="E32" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="91"/>
       <c r="I32" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J32" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>26</v>
@@ -12001,7 +12082,7 @@
     <row r="33" spans="1:13" ht="26.4">
       <c r="A33" s="21"/>
       <c r="B33" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="130">
         <v>1</v>
@@ -12010,14 +12091,14 @@
         <v>1</v>
       </c>
       <c r="F33" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>344</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>345</v>
       </c>
       <c r="H33" s="91"/>
       <c r="I33" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J33" s="89"/>
       <c r="K33" s="21"/>
@@ -12026,7 +12107,7 @@
     <row r="34" spans="1:13" ht="26.4">
       <c r="A34" s="21"/>
       <c r="B34" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="130">
         <v>1</v>
@@ -12035,12 +12116,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="91"/>
       <c r="I34" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J34" s="89"/>
       <c r="K34" s="21"/>
@@ -12049,23 +12130,23 @@
     <row r="35" spans="1:13" ht="26.4">
       <c r="A35" s="95"/>
       <c r="B35" s="165" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="141"/>
       <c r="D35" s="142">
         <v>1</v>
       </c>
       <c r="E35" s="143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="140" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G35" s="140"/>
       <c r="H35" s="144"/>
       <c r="I35" s="140"/>
       <c r="J35" s="148" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K35" s="166" t="s">
         <v>26</v>
@@ -12075,7 +12156,7 @@
     </row>
     <row r="36" spans="1:13" ht="13.2">
       <c r="C36" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D36" s="130">
         <v>1</v>
@@ -12089,7 +12170,7 @@
       </c>
       <c r="H36" s="91"/>
       <c r="I36" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J36" s="89"/>
       <c r="K36" s="21"/>
@@ -12097,16 +12178,16 @@
     </row>
     <row r="37" spans="1:13" ht="26.4">
       <c r="C37" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="130">
         <v>1</v>
       </c>
       <c r="E37" s="133" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="91" t="str">
@@ -12114,34 +12195,34 @@
         <v>c_8412</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J37" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000325","AGRO_00000325")</f>
         <v>AGRO_00000325</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="13.2">
       <c r="C38" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" s="130">
         <v>1</v>
       </c>
       <c r="E38" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="91"/>
       <c r="I38" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J38" s="89"/>
       <c r="K38" s="21"/>
@@ -12149,7 +12230,7 @@
     </row>
     <row r="39" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="A39" s="127" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="121"/>
       <c r="C39" s="125"/>
@@ -12157,16 +12238,16 @@
         <v>1</v>
       </c>
       <c r="E39" s="138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G39" s="121"/>
       <c r="H39" s="139"/>
       <c r="I39" s="121"/>
       <c r="J39" s="151" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K39" s="121" t="s">
         <v>26</v>
@@ -12188,13 +12269,13 @@
         <v>AGRO_00000341</v>
       </c>
       <c r="K40" s="82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L40" s="109"/>
     </row>
     <row r="41" spans="1:13" ht="39.6">
       <c r="A41" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41" s="21"/>
       <c r="D41" s="130">
@@ -12204,47 +12285,47 @@
         <v>1</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H41" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/PECO_0007102","PECO_0007102")</f>
         <v>PECO_0007102</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J41" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K41" s="82" t="s">
         <v>26</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="13.2">
       <c r="A42" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="21"/>
       <c r="D42" s="130">
         <v>1</v>
       </c>
       <c r="E42" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="91"/>
       <c r="I42" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J42" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" s="82" t="s">
         <v>26</v>
@@ -12253,7 +12334,7 @@
     </row>
     <row r="43" spans="1:13" ht="39.6">
       <c r="A43" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B43" s="21"/>
       <c r="D43" s="130">
@@ -12264,21 +12345,21 @@
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H43" s="91"/>
       <c r="I43" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J43" s="89"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="39.6">
       <c r="A44" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B44" s="21"/>
       <c r="D44" s="130">
@@ -12288,40 +12369,40 @@
         <v>1</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H44" s="91"/>
       <c r="I44" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J44" s="89"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="97" customFormat="1" ht="26.4">
       <c r="B45" s="167" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C45" s="141"/>
       <c r="D45" s="142">
         <v>1</v>
       </c>
       <c r="E45" s="143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F45" s="140" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G45" s="140"/>
       <c r="H45" s="144"/>
       <c r="I45" s="140"/>
       <c r="J45" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K45" s="152" t="s">
         <v>26</v>
@@ -12331,13 +12412,13 @@
     </row>
     <row r="46" spans="1:13" s="97" customFormat="1" ht="13.2">
       <c r="B46" s="170" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
       </c>
       <c r="E46" s="137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F46" s="109"/>
       <c r="G46" s="109"/>
@@ -12348,13 +12429,13 @@
         <v>STATO_0000265</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L46" s="109"/>
     </row>
     <row r="47" spans="1:13" ht="66">
       <c r="B47" s="95" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D47" s="130">
         <v>1</v>
@@ -12363,44 +12444,44 @@
         <v>1</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H47" s="91"/>
       <c r="I47" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J47" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K47" s="82" t="s">
         <v>26</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="13.2">
       <c r="B48" s="95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D48" s="130">
         <v>1</v>
       </c>
       <c r="E48" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G48" s="21">
         <v>96</v>
       </c>
       <c r="H48" s="91"/>
       <c r="I48" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" s="89"/>
       <c r="K48" s="21"/>
@@ -12408,74 +12489,74 @@
     </row>
     <row r="49" spans="1:13" ht="26.4">
       <c r="B49" s="95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D49" s="130">
         <v>1</v>
       </c>
       <c r="E49" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H49" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000283","UO_0000283")</f>
         <v>UO_0000283</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J49" s="89"/>
       <c r="K49" s="21"/>
       <c r="L49" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="66">
       <c r="B50" s="95" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D50" s="130">
         <v>1</v>
       </c>
       <c r="E50" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F50" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>373</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>374</v>
       </c>
       <c r="H50" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000026","AGRO_00000026")</f>
         <v>AGRO_00000026</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J50" s="89"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="13.2">
       <c r="B51" s="95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D51" s="130">
         <v>1</v>
       </c>
       <c r="E51" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="91" t="str">
@@ -12483,37 +12564,37 @@
         <v>c_8412</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J51" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000325","AGRO_00000325")</f>
         <v>AGRO_00000325</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L51" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="13.2">
       <c r="B52" s="80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D52" s="130">
         <v>1</v>
       </c>
       <c r="E52" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="91"/>
       <c r="I52" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J52" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K52" s="82" t="s">
         <v>26</v>
@@ -12522,22 +12603,22 @@
     </row>
     <row r="53" spans="1:13" ht="13.2">
       <c r="B53" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D53" s="130">
         <v>1</v>
       </c>
       <c r="E53" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="91"/>
       <c r="I53" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J53" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K53" s="82" t="s">
         <v>26</v>
@@ -12546,23 +12627,23 @@
     </row>
     <row r="54" spans="1:13" ht="26.4">
       <c r="B54" s="80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D54" s="130">
         <v>1</v>
       </c>
       <c r="E54" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" s="21" t="s">
         <v>378</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>379</v>
       </c>
       <c r="H54" s="91"/>
       <c r="I54" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J54" s="89"/>
       <c r="K54" s="21"/>
@@ -12570,76 +12651,76 @@
     </row>
     <row r="55" spans="1:13" ht="13.2">
       <c r="B55" s="80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D55" s="130">
         <v>1</v>
       </c>
       <c r="E55" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H55" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000040","AGRO_00000040")</f>
         <v>AGRO_00000040</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J55" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000036","AGRO_00000036")</f>
         <v>AGRO_00000036</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="26.4">
       <c r="B56" s="80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D56" s="130">
         <v>1</v>
       </c>
       <c r="E56" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F56" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>382</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>383</v>
       </c>
       <c r="H56" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/CHEBI_91238","CHEBI_91238")</f>
         <v>CHEBI_91238</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J56" s="89"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="13.2">
       <c r="B57" s="80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D57" s="130">
         <v>1</v>
       </c>
       <c r="E57" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -12648,7 +12729,7 @@
         <v>21</v>
       </c>
       <c r="J57" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K57" s="82" t="s">
         <v>26</v>
@@ -12657,7 +12738,7 @@
     </row>
     <row r="58" spans="1:13" ht="13.2">
       <c r="A58" s="127" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B58" s="121"/>
       <c r="C58" s="125"/>
@@ -12665,14 +12746,14 @@
         <v>1</v>
       </c>
       <c r="E58" s="138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F58" s="121"/>
       <c r="G58" s="121"/>
       <c r="H58" s="139"/>
       <c r="I58" s="121"/>
       <c r="J58" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K58" s="152" t="s">
         <v>26</v>
@@ -12682,16 +12763,16 @@
     </row>
     <row r="59" spans="1:13" ht="52.8">
       <c r="B59" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D59" s="130">
         <v>1</v>
       </c>
       <c r="E59" s="133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="91"/>
@@ -12701,28 +12782,28 @@
         <v>STATO_0000264</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L59" s="21"/>
     </row>
     <row r="60" spans="1:13" ht="13.2">
       <c r="B60" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D60" s="130">
         <v>1</v>
       </c>
       <c r="E60" s="133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="91"/>
       <c r="I60" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J60" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K60" s="82" t="s">
         <v>26</v>
@@ -12731,22 +12812,22 @@
     </row>
     <row r="61" spans="1:13" ht="13.2">
       <c r="B61" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D61" s="130">
         <v>1</v>
       </c>
       <c r="E61" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="91"/>
       <c r="I61" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J61" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K61" s="82" t="s">
         <v>26</v>
@@ -12755,22 +12836,22 @@
     </row>
     <row r="62" spans="1:13" ht="13.2">
       <c r="B62" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D62" s="130">
         <v>1</v>
       </c>
       <c r="E62" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="91"/>
       <c r="I62" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J62" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K62" s="82" t="s">
         <v>26</v>
@@ -12779,46 +12860,46 @@
     </row>
     <row r="63" spans="1:13" ht="13.2">
       <c r="B63" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D63" s="130">
         <v>1</v>
       </c>
       <c r="E63" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="91"/>
       <c r="I63" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J63" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K63" s="82" t="s">
         <v>26</v>
       </c>
       <c r="L63" s="21"/>
     </row>
-    <row r="64" spans="1:13" ht="26.4">
+    <row r="64" spans="1:13" ht="13.2">
       <c r="A64" s="97"/>
       <c r="B64" s="167" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C64" s="141"/>
       <c r="D64" s="142">
         <v>1</v>
       </c>
       <c r="E64" s="143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F64" s="140"/>
       <c r="G64" s="140"/>
       <c r="H64" s="144"/>
       <c r="I64" s="140"/>
       <c r="J64" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K64" s="152" t="s">
         <v>26</v>
@@ -12829,13 +12910,13 @@
     <row r="65" spans="1:13" s="97" customFormat="1" ht="13.2">
       <c r="B65" s="170"/>
       <c r="C65" s="169" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D65" s="136">
         <v>1</v>
       </c>
       <c r="E65" s="137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F65" s="109"/>
       <c r="G65" s="109"/>
@@ -12848,13 +12929,13 @@
     <row r="66" spans="1:13" ht="13.2">
       <c r="B66" s="21"/>
       <c r="C66" s="80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D66" s="130">
         <v>1</v>
       </c>
       <c r="E66" s="133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -12867,13 +12948,13 @@
     <row r="67" spans="1:13" ht="13.2">
       <c r="B67" s="21"/>
       <c r="C67" s="95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D67" s="130">
         <v>1</v>
       </c>
       <c r="E67" s="133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -12886,13 +12967,13 @@
     <row r="68" spans="1:13" ht="13.2">
       <c r="B68" s="21"/>
       <c r="C68" s="80" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D68" s="130">
         <v>1</v>
       </c>
       <c r="E68" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -12904,7 +12985,7 @@
     </row>
     <row r="69" spans="1:13" ht="13.2">
       <c r="A69" s="127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B69" s="121"/>
       <c r="C69" s="125"/>
@@ -12917,7 +12998,7 @@
       <c r="H69" s="139"/>
       <c r="I69" s="121"/>
       <c r="J69" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K69" s="152" t="s">
         <v>26</v>
@@ -12927,19 +13008,19 @@
     </row>
     <row r="70" spans="1:13" ht="13.2">
       <c r="B70" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D70" s="130">
         <v>1</v>
       </c>
       <c r="E70" s="133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
       <c r="H70" s="91"/>
       <c r="I70" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J70" s="89"/>
       <c r="K70" s="21"/>
@@ -12947,41 +13028,41 @@
     </row>
     <row r="71" spans="1:13" ht="26.4">
       <c r="B71" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D71" s="130">
         <v>1</v>
       </c>
       <c r="E71" s="133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
       <c r="H71" s="91"/>
       <c r="I71" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J71" s="89"/>
       <c r="K71" s="21"/>
       <c r="L71" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="13.2">
       <c r="B72" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D72" s="130">
         <v>1</v>
       </c>
       <c r="E72" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="91"/>
       <c r="I72" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J72" s="89"/>
       <c r="K72" s="21"/>
@@ -12989,41 +13070,41 @@
     </row>
     <row r="73" spans="1:13" ht="39.6">
       <c r="B73" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D73" s="130">
         <v>1</v>
       </c>
       <c r="E73" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
       <c r="H73" s="91"/>
       <c r="I73" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J73" s="89"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="13.2">
       <c r="B74" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D74" s="130">
         <v>1</v>
       </c>
       <c r="E74" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
       <c r="H74" s="91"/>
       <c r="I74" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J74" s="89"/>
       <c r="K74" s="21"/>
@@ -13031,22 +13112,22 @@
     </row>
     <row r="75" spans="1:13" ht="13.2">
       <c r="B75" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D75" s="130">
         <v>1</v>
       </c>
       <c r="E75" s="133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
       <c r="H75" s="91"/>
       <c r="I75" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J75" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K75" s="82" t="s">
         <v>26</v>
@@ -13110,16 +13191,16 @@
     </row>
     <row r="81" spans="2:13" ht="39.6">
       <c r="B81" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E81" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="F81" s="21" t="s">
+      <c r="G81" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="I81" s="21" t="s">
         <v>21</v>
@@ -13129,31 +13210,31 @@
         <v>STATO_00000264</v>
       </c>
       <c r="K81" s="90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="39.6">
       <c r="C82" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E82" s="133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J82" s="92"/>
       <c r="K82" s="90"/>
     </row>
     <row r="83" spans="2:13" ht="26.4">
       <c r="B83" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="E83" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="G83" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="H83" s="91" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/CHEBI_25555","CHEBI_25555")</f>
@@ -13167,24 +13248,24 @@
         <v>OBI_0000750</v>
       </c>
       <c r="K83" s="90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="39.6">
       <c r="B84" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E84" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="F84" s="21" t="s">
+      <c r="G84" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="G84" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="H84" s="88" t="str">
         <f>HYPERLINK("http://www.cropontology.org/terms/CO_321:0000236/","CO_321:0000236")</f>
@@ -13198,30 +13279,30 @@
         <v>OBI_0000751</v>
       </c>
       <c r="K84" s="90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L84" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="2:13" ht="26.4">
       <c r="B85" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="E85" s="133" t="s">
+      <c r="F85" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="86" spans="2:13" ht="13.2">
       <c r="C86" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86" s="133"/>
       <c r="G86" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H86" s="91" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/ENVO_00003869","ENVO_00003869")</f>
@@ -13235,16 +13316,16 @@
         <v>BFO_0000040</v>
       </c>
       <c r="K86" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="2:13" ht="13.2">
       <c r="C87" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E87" s="133"/>
       <c r="G87" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H87" s="91" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/NCIT_C54647","NCIT_C54647")</f>
@@ -13258,10 +13339,10 @@
         <v>NCIT_C25515</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="2:13" ht="13.2">
@@ -16263,10 +16344,10 @@
   </sheetPr>
   <dimension ref="A1:Z1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -16293,7 +16374,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
@@ -16424,8 +16505,8 @@
       <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>30</v>
+      <c r="I4" s="173" t="s">
+        <v>229</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>25</v>
@@ -16449,7 +16530,7 @@
     </row>
     <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="32">
         <v>1</v>
@@ -16458,10 +16539,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="G5" s="28" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000362","AGRO_00000362")</f>
@@ -16475,10 +16556,10 @@
         <v>AGRO_00000360</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="18"/>
@@ -16498,19 +16579,19 @@
     </row>
     <row r="6" spans="1:26" ht="26.4">
       <c r="A6" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="32">
         <v>1</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
@@ -16537,7 +16618,7 @@
     </row>
     <row r="7" spans="1:26" ht="66">
       <c r="A7" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="32">
         <v>1</v>
@@ -16546,10 +16627,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -16574,21 +16655,21 @@
     </row>
     <row r="8" spans="1:26" ht="13.2">
       <c r="A8" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="50">
         <v>8</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
@@ -16611,7 +16692,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.2">
       <c r="A9" s="118" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="117"/>
       <c r="C9" s="119"/>
@@ -16641,19 +16722,19 @@
     </row>
     <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="63">
         <v>1</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="G10" s="53" t="str">
         <f>HYPERLINK("http://www.geonames.org/7293719/harpenden.html","7293719")</f>
@@ -16663,7 +16744,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>25</v>
@@ -16687,19 +16768,19 @@
     </row>
     <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="63">
         <v>1</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="G11" s="55" t="str">
         <f>HYPERLINK("http://www.geonames.org/2647043","2647043")</f>
@@ -16709,7 +16790,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J11" s="54" t="s">
         <v>25</v>
@@ -16733,7 +16814,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.2">
       <c r="A12" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="63">
         <v>1</v>
@@ -16743,7 +16824,7 @@
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="55" t="str">
         <f>HYPERLINK("http://www.geonames.org/2635167","2635167")</f>
@@ -16751,7 +16832,7 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J12" s="54" t="s">
         <v>25</v>
@@ -16775,30 +16856,30 @@
     </row>
     <row r="13" spans="1:26" ht="13.2">
       <c r="A13" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="57">
         <v>51.809460000000001</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>HYPERLINK("http://www.cropontology.org/terms/CO_715:0000065/","CO_715:0000065")</f>
         <v>CO_715:0000065</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -16819,30 +16900,30 @@
     </row>
     <row r="14" spans="1:26" ht="13.2">
       <c r="A14" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="32">
         <v>1</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="58">
         <v>-0.37301000000000001</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="30" t="str">
         <f>HYPERLINK("http://www.cropontology.org/terms/CO_715:0000066/","CO_715:0000066")</f>
         <v>CO_715:0000066</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -16863,28 +16944,28 @@
     </row>
     <row r="15" spans="1:26" ht="105.6">
       <c r="A15" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>151</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>152</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/NCIT_C73492","NCIT_C73492")</f>
         <v>NCIT_C73492</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -16905,30 +16986,30 @@
     </row>
     <row r="16" spans="1:26" ht="13.2">
       <c r="A16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="32">
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="16">
         <v>130</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>HYPERLINK("http://www.cropontology.org/terms/CO_715:0000067/","CO_715:0000067")</f>
         <v>CO_715:0000067</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -16949,30 +17030,30 @@
     </row>
     <row r="17" spans="1:26" ht="13.2">
       <c r="A17" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="32">
         <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="30" t="str">
         <f>HYPERLINK("http://www.cropontology.org/terms/CO_715:0000062/","CO_715:0000062")</f>
         <v>CO_715:0000062</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -16993,19 +17074,19 @@
     </row>
     <row r="18" spans="1:26" ht="39.6">
       <c r="A18" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="32">
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>164</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16" t="s">
@@ -17016,7 +17097,7 @@
         <v>CO_715:0000064</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -17037,7 +17118,7 @@
     </row>
     <row r="19" spans="1:26" ht="13.2">
       <c r="A19" s="118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="117"/>
       <c r="C19" s="119"/>
@@ -17067,13 +17148,13 @@
     </row>
     <row r="20" spans="1:26" ht="13.2">
       <c r="A20" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="126"/>
       <c r="F20" s="50"/>
@@ -17082,7 +17163,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
@@ -17103,13 +17184,13 @@
     </row>
     <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="126"/>
       <c r="F21" s="50"/>
@@ -17117,7 +17198,9 @@
       <c r="H21" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
@@ -17138,14 +17221,14 @@
     </row>
     <row r="22" spans="1:26" ht="13.2">
       <c r="A22" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>169</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>170</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
@@ -17179,28 +17262,28 @@
     <row r="23" spans="1:26" ht="13.2">
       <c r="A23" s="50"/>
       <c r="B23" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F23" s="50">
         <v>250</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I23" s="30" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/NCIT_C25167","NCIT_C25167")</f>
         <v>NCIT_C25167</v>
       </c>
       <c r="J23" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" s="50"/>
       <c r="L23" s="50"/>
@@ -17222,14 +17305,14 @@
     <row r="24" spans="1:26" ht="13.2">
       <c r="A24" s="50"/>
       <c r="B24" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" s="50">
         <v>280</v>
@@ -17239,14 +17322,14 @@
         <v>NCIT_C45856</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="28" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000185","UO_0000185")</f>
         <v>UO_0000185</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K24" s="50"/>
       <c r="L24" s="50"/>
@@ -17267,14 +17350,14 @@
     </row>
     <row r="25" spans="1:26" ht="13.2">
       <c r="A25" s="145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="147"/>
       <c r="C25" s="146">
         <v>1</v>
       </c>
       <c r="D25" s="146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="164"/>
       <c r="F25" s="147"/>
@@ -17301,25 +17384,34 @@
     </row>
     <row r="26" spans="1:26" ht="13.2">
       <c r="B26" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="32">
         <v>1</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E26" s="126" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="G26" s="173" t="str">
+        <f>HYPERLINK("http://aims.fao.org/aos/agrovoc/c_6161","c_6161")</f>
+        <v>c_6161</v>
+      </c>
       <c r="H26" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I26" s="74"/>
       <c r="J26" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="50"/>
+      <c r="K26" s="50" t="s">
+        <v>413</v>
+      </c>
       <c r="L26" s="50"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -17339,22 +17431,26 @@
     <row r="27" spans="1:26" ht="13.2">
       <c r="A27" s="50"/>
       <c r="B27" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" s="32">
         <v>1</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>407</v>
+      </c>
+      <c r="F27" s="50">
+        <v>1981</v>
+      </c>
       <c r="G27" s="50"/>
       <c r="H27" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J27" s="82" t="s">
         <v>26</v>
@@ -17379,22 +17475,26 @@
     <row r="28" spans="1:26" ht="13.2">
       <c r="A28" s="50"/>
       <c r="B28" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" s="32">
         <v>1</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="126"/>
-      <c r="F28" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E28" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="F28" s="50">
+        <v>2010</v>
+      </c>
       <c r="G28" s="50"/>
       <c r="H28" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J28" s="82" t="s">
         <v>26</v>
@@ -17419,19 +17519,23 @@
     <row r="29" spans="1:26" ht="13.2">
       <c r="A29" s="50"/>
       <c r="B29" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C29" s="32">
         <v>1</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="126"/>
-      <c r="F29" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E29" s="126" t="s">
+        <v>409</v>
+      </c>
+      <c r="F29" s="50">
+        <v>511</v>
+      </c>
       <c r="G29" s="50"/>
       <c r="H29" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="85"/>
       <c r="J29" s="82"/>
@@ -17455,26 +17559,30 @@
     <row r="30" spans="1:26" ht="13.2">
       <c r="A30" s="50"/>
       <c r="B30" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="32">
         <v>1</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="126"/>
-      <c r="F30" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E30" s="126" t="s">
+        <v>410</v>
+      </c>
+      <c r="F30" s="50">
+        <v>349</v>
+      </c>
       <c r="G30" s="50"/>
       <c r="H30" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_0000150","STATO_0000150")</f>
         <v>STATO_0000150</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K30" s="50"/>
       <c r="L30" s="50"/>
@@ -17496,26 +17604,30 @@
     <row r="31" spans="1:26" ht="13.2">
       <c r="A31" s="50"/>
       <c r="B31" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="126"/>
-      <c r="F31" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E31" s="126" t="s">
+        <v>411</v>
+      </c>
+      <c r="F31" s="50">
+        <v>698</v>
+      </c>
       <c r="G31" s="50"/>
       <c r="H31" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_0000151","STATO_0000151")</f>
         <v>STATO_0000151</v>
       </c>
       <c r="J31" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K31" s="50"/>
       <c r="L31" s="50"/>
@@ -17537,28 +17649,32 @@
     <row r="32" spans="1:26" ht="13.2">
       <c r="A32" s="50"/>
       <c r="B32" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="32">
         <v>1</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="126"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E32" s="126" t="s">
+        <v>412</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G32" s="173" t="str">
+        <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000016","UO_0000016")</f>
+        <v>UO_0000016</v>
+      </c>
       <c r="H32" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" s="173" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_0000401","STATO_0000401")</f>
-        <v>STATO_0000401</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="K32" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="I32" s="173"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50" t="s">
+        <v>174</v>
+      </c>
       <c r="L32" s="50"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -17577,7 +17693,7 @@
     </row>
     <row r="33" spans="1:26" ht="13.2">
       <c r="A33" s="118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="117"/>
       <c r="C33" s="119"/>
@@ -17607,22 +17723,38 @@
     </row>
     <row r="34" spans="1:26" ht="13.2">
       <c r="A34" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="32">
         <v>1</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="126"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E34" s="126" t="s">
+        <v>388</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" s="173" t="str">
+        <f>HYPERLINK("http://purl.obolibrary.org/obo/ENVO_00002248","ENVO_00002248")</f>
+        <v>ENVO_00002248</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="173" t="str">
+        <f>HYPERLINK("http://purl.obolibrary.org/obo/ENVO_00001998","ENVO_00001998")</f>
+        <v>ENVO_00001998</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K34" s="50" t="s">
+        <v>405</v>
+      </c>
       <c r="L34" s="50"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
@@ -17639,22 +17771,28 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" ht="13.2">
+    <row r="35" spans="1:26" ht="26.4">
       <c r="A35" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="32">
         <v>1</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="126"/>
+        <v>41</v>
+      </c>
+      <c r="E35" s="126" t="s">
+        <v>389</v>
+      </c>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
       <c r="L35" s="50"/>
@@ -17675,12 +17813,12 @@
     </row>
     <row r="36" spans="1:26" ht="13.2">
       <c r="A36" s="145" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" s="147"/>
       <c r="C36" s="146"/>
       <c r="D36" s="146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="162"/>
       <c r="F36" s="147"/>
@@ -17705,23 +17843,34 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" ht="13.2">
+    <row r="37" spans="1:26" ht="26.4">
       <c r="B37" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="32">
         <v>1</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="126"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E37" s="126" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="G37" s="173" t="str">
+        <f>HYPERLINK("http://purl.obolibrary.org/obo/EO_0007053","EO_0007053")</f>
+        <v>EO_0007053</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="I37" s="30"/>
       <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
+      <c r="K37" s="50" t="s">
+        <v>404</v>
+      </c>
       <c r="L37" s="50"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
@@ -17741,26 +17890,30 @@
     <row r="38" spans="1:26" ht="26.4">
       <c r="A38" s="50"/>
       <c r="B38" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" s="32">
         <v>1</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="126"/>
-      <c r="F38" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E38" s="126" t="s">
+        <v>392</v>
+      </c>
+      <c r="F38" s="50">
+        <v>0</v>
+      </c>
       <c r="G38" s="50"/>
       <c r="H38" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I38" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_0000150","STATO_0000150")</f>
         <v>STATO_0000150</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K38" s="50"/>
       <c r="L38" s="50"/>
@@ -17782,26 +17935,30 @@
     <row r="39" spans="1:26" ht="26.4">
       <c r="A39" s="50"/>
       <c r="B39" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C39" s="32">
         <v>1</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="126"/>
-      <c r="F39" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E39" s="126" t="s">
+        <v>393</v>
+      </c>
+      <c r="F39" s="50">
+        <v>30</v>
+      </c>
       <c r="G39" s="50"/>
       <c r="H39" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I39" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_0000151","STATO_0000151")</f>
         <v>STATO_0000151</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K39" s="50"/>
       <c r="L39" s="50"/>
@@ -17823,23 +17980,30 @@
     <row r="40" spans="1:26" ht="13.2">
       <c r="A40" s="50"/>
       <c r="B40" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C40" s="32">
         <v>1</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E40" s="126" t="s">
+        <v>394</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="G40" s="173" t="str">
+        <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000015","UO_0000015")</f>
+        <v>UO_0000015</v>
+      </c>
       <c r="H40" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="28"/>
       <c r="K40" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L40" s="50"/>
       <c r="M40" s="18"/>
@@ -17860,18 +18024,24 @@
     <row r="41" spans="1:26" ht="13.2">
       <c r="A41" s="50"/>
       <c r="B41" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" s="32">
         <v>1</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="126"/>
-      <c r="F41" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E41" s="126" t="s">
+        <v>401</v>
+      </c>
+      <c r="F41" s="50" t="b">
+        <v>0</v>
+      </c>
       <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
+      <c r="H41" s="50" t="s">
+        <v>227</v>
+      </c>
       <c r="I41" s="30"/>
       <c r="J41" s="50"/>
       <c r="K41" s="50"/>
@@ -17894,18 +18064,24 @@
     <row r="42" spans="1:26" ht="13.2">
       <c r="A42" s="50"/>
       <c r="B42" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" s="32">
         <v>1</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="126"/>
-      <c r="F42" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E42" s="126" t="s">
+        <v>400</v>
+      </c>
+      <c r="F42" s="50" t="b">
+        <v>0</v>
+      </c>
       <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="H42" s="50" t="s">
+        <v>227</v>
+      </c>
       <c r="I42" s="30"/>
       <c r="J42" s="50"/>
       <c r="K42" s="50"/>
@@ -17928,18 +18104,24 @@
     <row r="43" spans="1:26" ht="13.2">
       <c r="A43" s="50"/>
       <c r="B43" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" s="32">
         <v>1</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="126"/>
-      <c r="F43" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E43" s="126" t="s">
+        <v>399</v>
+      </c>
+      <c r="F43" s="50">
+        <v>1980</v>
+      </c>
       <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
+      <c r="H43" s="50" t="s">
+        <v>65</v>
+      </c>
       <c r="I43" s="30"/>
       <c r="J43" s="50"/>
       <c r="K43" s="50"/>
@@ -17962,18 +18144,24 @@
     <row r="44" spans="1:26" ht="13.2">
       <c r="A44" s="50"/>
       <c r="B44" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" s="32">
         <v>1</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="126"/>
-      <c r="F44" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E44" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="F44" s="50">
+        <v>23</v>
+      </c>
       <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
+      <c r="H44" s="50" t="s">
+        <v>92</v>
+      </c>
       <c r="I44" s="30"/>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
@@ -17996,20 +18184,31 @@
     <row r="45" spans="1:26" ht="13.2">
       <c r="A45" s="50"/>
       <c r="B45" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" s="32">
         <v>1</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="126"/>
-      <c r="F45" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E45" s="126" t="s">
+        <v>395</v>
+      </c>
+      <c r="F45" s="50">
+        <v>21</v>
+      </c>
       <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="50"/>
+      <c r="H45" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="173" t="str">
+        <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_0000150","STATO_0000150")</f>
+        <v>STATO_0000150</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>387</v>
+      </c>
       <c r="K45" s="50"/>
       <c r="L45" s="50"/>
       <c r="M45" s="18"/>
@@ -18030,20 +18229,31 @@
     <row r="46" spans="1:26" ht="13.2">
       <c r="A46" s="50"/>
       <c r="B46" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" s="32">
         <v>1</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="126"/>
-      <c r="F46" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E46" s="126" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46" s="50">
+        <v>27</v>
+      </c>
       <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="50"/>
+      <c r="H46" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="173" t="str">
+        <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_0000151","STATO_0000151")</f>
+        <v>STATO_0000151</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>387</v>
+      </c>
       <c r="K46" s="50"/>
       <c r="L46" s="50"/>
       <c r="M46" s="18"/>
@@ -18064,21 +18274,32 @@
     <row r="47" spans="1:26" ht="13.2">
       <c r="A47" s="50"/>
       <c r="B47" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C47" s="32">
         <v>1</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="126"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="E47" s="126" t="s">
+        <v>398</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G47" s="173" t="str">
+        <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000187","UO_0000187")</f>
+        <v>UO_0000187</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="I47" s="30"/>
       <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
+      <c r="K47" s="50" t="s">
+        <v>174</v>
+      </c>
       <c r="L47" s="50"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
@@ -45260,9 +45481,11 @@
     <hyperlink ref="I28" r:id="rId15" xr:uid="{618B305F-B997-4DD9-B995-34D88E36BB95}"/>
     <hyperlink ref="J27" r:id="rId16" xr:uid="{5D5145FE-4669-4883-9DE8-BD5B078E2D2E}"/>
     <hyperlink ref="J28" r:id="rId17" xr:uid="{3D608BE0-C01C-41E2-A425-A3EA55BCF49E}"/>
+    <hyperlink ref="I35" r:id="rId18" xr:uid="{CD4967D4-3729-4FA2-9E71-0E31B3D7DEB1}"/>
+    <hyperlink ref="I21" r:id="rId19" xr:uid="{461F1AC7-D388-4E9C-9FC9-1C8207DC27E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -45298,7 +45521,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -45310,7 +45533,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -45327,16 +45550,16 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
@@ -45349,12 +45572,12 @@
         <v>25</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="96">
         <v>1</v>
@@ -45363,14 +45586,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J3" s="54" t="s">
         <v>25</v>
@@ -45378,13 +45601,13 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="96">
         <v>1</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -45392,7 +45615,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J4" s="54" t="s">
         <v>25</v>
@@ -45400,7 +45623,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="96">
         <v>1</v>
@@ -45409,14 +45632,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>25</v>
@@ -45424,13 +45647,13 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="96">
         <v>1</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="68"/>
       <c r="G6" s="68"/>
@@ -45440,89 +45663,89 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="B7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="96">
         <v>1</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>85</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="66">
         <v>42887</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="67" t="s">
         <v>62</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="96">
         <v>1</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>25</v>
@@ -45530,24 +45753,24 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="32">
         <v>1</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>26</v>
@@ -45555,16 +45778,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="32">
         <v>1</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -45572,7 +45795,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>26</v>
@@ -45580,16 +45803,16 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -45597,7 +45820,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>26</v>
@@ -45605,16 +45828,16 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="B14" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="32">
         <v>1</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
@@ -45622,7 +45845,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>26</v>
@@ -45630,16 +45853,16 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="B15" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="32">
         <v>1</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
@@ -45647,7 +45870,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>26</v>
@@ -45725,7 +45948,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -45737,7 +45960,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -45757,16 +45980,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="15">
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="19" t="s">
@@ -45781,16 +46004,16 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="19" t="s">
@@ -45806,16 +46029,16 @@
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>203</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="19" t="s">
@@ -45828,13 +46051,13 @@
         <v>25</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="96">
         <v>1</v>
@@ -45843,7 +46066,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="51" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/OBI_0000828","OBI_0000828")</f>
@@ -45857,15 +46080,15 @@
         <v>OBI_0000245</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
@@ -45874,7 +46097,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="53" t="str">
         <f>HYPERLINK("http://www.geonames.org/2639103/rothamsted-research.html","2639103")</f>
@@ -45888,32 +46111,32 @@
         <v>CO_715:0000075</v>
       </c>
       <c r="J6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="50"/>
       <c r="B7" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="32">
         <v>1</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="50">
         <v>2003</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>62</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>63</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>26</v>
@@ -45922,21 +46145,21 @@
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="50"/>
       <c r="B8" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>26</v>
@@ -45944,10 +46167,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="32">
         <v>1</v>
@@ -45956,13 +46179,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>233</v>
-      </c>
       <c r="I9" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>26</v>
@@ -45970,7 +46193,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="32">
         <v>1</v>
@@ -45979,13 +46202,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>26</v>
@@ -45993,7 +46216,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="32">
         <v>1</v>
@@ -46002,13 +46225,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>26</v>
@@ -46016,7 +46239,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="32">
         <v>1</v>
@@ -46025,13 +46248,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>26</v>
@@ -46039,7 +46262,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
@@ -46048,13 +46271,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>26</v>
@@ -49090,7 +49313,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -49110,7 +49333,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="15">
         <v>1</v>
@@ -49127,10 +49350,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>21</v>
@@ -49148,10 +49371,10 @@
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="19" t="s">
@@ -49166,7 +49389,7 @@
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -49179,7 +49402,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>25</v>
@@ -49190,7 +49413,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -49204,7 +49427,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>25</v>
@@ -49213,37 +49436,37 @@
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="52">
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>

--- a/LTE Metadata Checklist.xlsx
+++ b/LTE Metadata Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\schemas\MILAX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDDA262F-E091-471D-A35E-350A4AE7DBF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{328B5587-A2C0-4FCC-9642-F833E704B323}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="396">
   <si>
     <t>Attribute group</t>
   </si>
@@ -339,67 +339,19 @@
     <t>Agrovoc</t>
   </si>
   <si>
-    <t>Factor level combnation</t>
-  </si>
-  <si>
-    <t>One of the sets of factor level combinations applied to experimental plots</t>
-  </si>
-  <si>
-    <t>N2PKNaMg</t>
-  </si>
-  <si>
-    <t>Note that this doesn't work exactly as defined for something like Broadbalk which has factor groups but not as a cartesian product</t>
-  </si>
-  <si>
-    <t>See Factor Level sheet for detailed description</t>
-  </si>
-  <si>
     <t>The date the person finished in the organisation</t>
-  </si>
-  <si>
-    <t>Independent variable</t>
-  </si>
-  <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Agrovoc, CHEBI; Agronomy Ontology</t>
-  </si>
-  <si>
-    <t>Dependent variable</t>
-  </si>
-  <si>
-    <t>The dependent variable is something measured or observed and which is expected to change in response to the independent variable</t>
-  </si>
-  <si>
-    <t>Grain yield computation</t>
   </si>
   <si>
     <t>Funding grant name</t>
   </si>
   <si>
-    <t>Crop ontology; Agronomy ontology; Agrovoc</t>
-  </si>
-  <si>
-    <t>Physical samples archived</t>
-  </si>
-  <si>
     <t>0-n</t>
-  </si>
-  <si>
-    <t>Describe any types of physical samples collected. The archive should be described as an associated organisation.</t>
-  </si>
-  <si>
-    <t>material entity</t>
   </si>
   <si>
     <t>Site History</t>
   </si>
   <si>
     <t>Description of the history of the site</t>
-  </si>
-  <si>
-    <t>Straw</t>
   </si>
   <si>
     <t>Location</t>
@@ -412,15 +364,6 @@
   </si>
   <si>
     <t>Start date of the funding grant</t>
-  </si>
-  <si>
-    <t>Biological collections ontology</t>
-  </si>
-  <si>
-    <t>Sample frequency</t>
-  </si>
-  <si>
-    <t>Annual</t>
   </si>
   <si>
     <t>District the site is located in</t>
@@ -886,9 +829,6 @@
     <t>application frequency</t>
   </si>
   <si>
-    <t>Factor</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -1194,9 +1134,6 @@
     <t>Factor Level Combination</t>
   </si>
   <si>
-    <t>Factor level name</t>
-  </si>
-  <si>
     <t>Factor level combinations are a combination of previously defined Factor Levels. Factor Level combinations are generally only applicable to non-factorial experiment designs where only selected treatment combinations are applied</t>
   </si>
   <si>
@@ -1288,6 +1225,9 @@
   </si>
   <si>
     <t>Factor Combinations</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/STATO_0000265</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -2553,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75">
@@ -2664,7 +2604,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="21" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
@@ -2693,7 +2633,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="16" t="s">
@@ -2707,22 +2647,22 @@
       </c>
       <c r="K7" s="50"/>
       <c r="L7" s="50" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25.5">
       <c r="A8" s="16" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>18</v>
@@ -2759,7 +2699,7 @@
     </row>
     <row r="10" spans="1:12" ht="89.25">
       <c r="A10" s="50" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -2771,25 +2711,25 @@
         <v>52</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>26</v>
       </c>
       <c r="K10" s="72" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:12" ht="12.75">
       <c r="A11" s="50" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>41</v>
@@ -2798,17 +2738,17 @@
         <v>1</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>26</v>
@@ -2827,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>55</v>
@@ -2838,13 +2778,13 @@
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="72" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:12" ht="12.75">
       <c r="A13" s="50" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>41</v>
@@ -2871,7 +2811,7 @@
     </row>
     <row r="14" spans="1:12" ht="12.75">
       <c r="A14" s="50" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>41</v>
@@ -2880,17 +2820,17 @@
         <v>1</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="J14" s="50" t="s">
         <v>26</v>
@@ -2900,7 +2840,7 @@
     </row>
     <row r="15" spans="1:12" ht="12.75">
       <c r="A15" s="118" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B15" s="128"/>
       <c r="C15" s="119"/>
@@ -2916,7 +2856,7 @@
     </row>
     <row r="16" spans="1:12" ht="12.75">
       <c r="A16" s="16" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C16" s="17">
         <v>1</v>
@@ -3004,7 +2944,7 @@
     </row>
     <row r="19" spans="1:30" ht="12.75">
       <c r="A19" s="50" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>41</v>
@@ -3013,14 +2953,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="45"/>
@@ -3045,7 +2985,7 @@
     </row>
     <row r="21" spans="1:30" s="105" customFormat="1" ht="12.75">
       <c r="A21" s="99" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B21" s="99"/>
       <c r="C21" s="100" t="s">
@@ -3059,7 +2999,7 @@
       <c r="G21" s="101"/>
       <c r="H21" s="101"/>
       <c r="I21" s="71" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>26</v>
@@ -3087,7 +3027,7 @@
     <row r="22" spans="1:30" s="105" customFormat="1" ht="12.75">
       <c r="A22" s="99"/>
       <c r="B22" s="99" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C22" s="100">
         <v>1</v>
@@ -3096,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="99" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="F22" s="101"/>
       <c r="G22" s="101"/>
@@ -3104,7 +3044,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>26</v>
@@ -3131,22 +3071,22 @@
     </row>
     <row r="23" spans="1:30" ht="25.5">
       <c r="B23" s="16" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="50" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="34"/>
       <c r="H23" s="16" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>26</v>
@@ -3171,14 +3111,14 @@
     </row>
     <row r="24" spans="1:30" ht="12.75">
       <c r="B24" s="16" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="45" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="34"/>
@@ -3211,19 +3151,19 @@
     </row>
     <row r="25" spans="1:30" ht="12.75">
       <c r="B25" s="45" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="45" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="34"/>
       <c r="H25" s="16" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="I25" s="41" t="s">
         <v>62</v>
@@ -3251,19 +3191,19 @@
     </row>
     <row r="26" spans="1:30" ht="12.75">
       <c r="B26" s="45" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="45" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="34"/>
       <c r="H26" s="50" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>72</v>
@@ -11235,12 +11175,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1061"/>
+  <dimension ref="A1:M1059"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11269,10 +11209,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E1" s="132" t="s">
         <v>3</v>
@@ -11299,7 +11239,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="106" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
@@ -11327,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -11353,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="84"/>
@@ -11385,7 +11325,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="K5" s="82" t="s">
         <v>26</v>
@@ -11402,10 +11342,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="H6" s="84"/>
       <c r="I6" s="168" t="s">
@@ -11420,7 +11360,7 @@
     </row>
     <row r="7" spans="1:13" ht="12.75">
       <c r="A7" s="127" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B7" s="125"/>
       <c r="C7" s="125"/>
@@ -11493,7 +11433,7 @@
     </row>
     <row r="10" spans="1:13" ht="12.75">
       <c r="A10" s="21" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D10" s="130">
         <v>1</v>
@@ -11502,7 +11442,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="95" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="84"/>
@@ -11518,7 +11458,7 @@
     </row>
     <row r="11" spans="1:13" ht="51">
       <c r="A11" s="21" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D11" s="130">
         <v>1</v>
@@ -11530,7 +11470,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="H11" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000335","AGRO_00000335")</f>
@@ -11544,10 +11484,10 @@
         <v>AGRO_00000343</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="38.25">
@@ -11580,13 +11520,13 @@
     </row>
     <row r="13" spans="1:13" ht="38.25">
       <c r="A13" s="21" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E13" s="133" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="71"/>
@@ -11598,22 +11538,22 @@
         <v>PATO_0001323</v>
       </c>
       <c r="K13" s="108" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="L13" s="82"/>
       <c r="M13" s="21" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="25.5">
       <c r="A14" s="21" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="E14" s="133" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="71"/>
@@ -11625,7 +11565,7 @@
         <v>UO_0000047</v>
       </c>
       <c r="K14" s="108" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="L14" s="82"/>
       <c r="M14" s="21"/>
@@ -11712,7 +11652,7 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" s="21" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D18" s="130">
         <v>1</v>
@@ -11822,13 +11762,13 @@
         <v>41</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="G23" s="80" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="J23" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000320","AGRO_00000320")</f>
@@ -11874,7 +11814,7 @@
       <c r="H25" s="125"/>
       <c r="I25" s="125"/>
       <c r="J25" s="149" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="K25" s="152" t="s">
         <v>26</v>
@@ -11884,7 +11824,7 @@
     </row>
     <row r="26" spans="1:13" ht="38.25">
       <c r="B26" s="21" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D26" s="130">
         <v>1</v>
@@ -11914,12 +11854,12 @@
         <v>103</v>
       </c>
       <c r="M26" s="80" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="B27" s="21" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D27" s="130">
         <v>1</v>
@@ -11928,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="91"/>
@@ -11936,7 +11876,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K27" s="82" t="s">
         <v>26</v>
@@ -11945,7 +11885,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="B28" s="21" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D28" s="130">
         <v>1</v>
@@ -11954,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="91"/>
@@ -11962,7 +11902,7 @@
         <v>65</v>
       </c>
       <c r="J28" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K28" s="82" t="s">
         <v>26</v>
@@ -11971,7 +11911,7 @@
     </row>
     <row r="29" spans="1:13" s="97" customFormat="1" ht="12.75">
       <c r="A29" s="127" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B29" s="121"/>
       <c r="C29" s="125"/>
@@ -11979,16 +11919,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="138" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="G29" s="125"/>
       <c r="H29" s="139"/>
       <c r="I29" s="121"/>
       <c r="J29" s="149" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="K29" s="152" t="s">
         <v>26</v>
@@ -11999,7 +11939,7 @@
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" s="21"/>
       <c r="B30" s="21" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D30" s="130">
         <v>1</v>
@@ -12008,17 +11948,17 @@
         <v>1</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G30" s="109" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="H30" s="91"/>
       <c r="I30" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J30" s="74" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="K30" s="82" t="s">
         <v>26</v>
@@ -12028,7 +11968,7 @@
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" s="21"/>
       <c r="B31" s="21" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D31" s="130">
         <v>1</v>
@@ -12037,7 +11977,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="91"/>
@@ -12045,7 +11985,7 @@
         <v>65</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K31" s="82" t="s">
         <v>26</v>
@@ -12055,7 +11995,7 @@
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" s="21"/>
       <c r="B32" s="21" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D32" s="130">
         <v>1</v>
@@ -12064,7 +12004,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="91"/>
@@ -12072,7 +12012,7 @@
         <v>65</v>
       </c>
       <c r="J32" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>26</v>
@@ -12082,7 +12022,7 @@
     <row r="33" spans="1:13" ht="25.5">
       <c r="A33" s="21"/>
       <c r="B33" s="21" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D33" s="130">
         <v>1</v>
@@ -12091,14 +12031,14 @@
         <v>1</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="H33" s="91"/>
       <c r="I33" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J33" s="89"/>
       <c r="K33" s="21"/>
@@ -12107,7 +12047,7 @@
     <row r="34" spans="1:13" ht="25.5">
       <c r="A34" s="21"/>
       <c r="B34" s="21" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D34" s="130">
         <v>1</v>
@@ -12116,12 +12056,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="91"/>
       <c r="I34" s="21" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="J34" s="89"/>
       <c r="K34" s="21"/>
@@ -12130,7 +12070,7 @@
     <row r="35" spans="1:13" ht="25.5">
       <c r="A35" s="95"/>
       <c r="B35" s="165" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C35" s="141"/>
       <c r="D35" s="142">
@@ -12140,13 +12080,13 @@
         <v>53</v>
       </c>
       <c r="F35" s="140" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="G35" s="140"/>
       <c r="H35" s="144"/>
       <c r="I35" s="140"/>
       <c r="J35" s="148" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="K35" s="166" t="s">
         <v>26</v>
@@ -12156,7 +12096,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="C36" s="21" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D36" s="130">
         <v>1</v>
@@ -12178,16 +12118,16 @@
     </row>
     <row r="37" spans="1:13" ht="25.5">
       <c r="C37" s="21" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D37" s="130">
         <v>1</v>
       </c>
       <c r="E37" s="133" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="91" t="str">
@@ -12195,7 +12135,7 @@
         <v>c_8412</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J37" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000325","AGRO_00000325")</f>
@@ -12210,7 +12150,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="C38" s="21" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D38" s="130">
         <v>1</v>
@@ -12222,7 +12162,7 @@
       <c r="G38" s="21"/>
       <c r="H38" s="91"/>
       <c r="I38" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J38" s="89"/>
       <c r="K38" s="21"/>
@@ -12230,7 +12170,7 @@
     </row>
     <row r="39" spans="1:13" s="97" customFormat="1" ht="25.5">
       <c r="A39" s="127" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B39" s="121"/>
       <c r="C39" s="125"/>
@@ -12241,13 +12181,13 @@
         <v>53</v>
       </c>
       <c r="F39" s="121" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="G39" s="121"/>
       <c r="H39" s="139"/>
       <c r="I39" s="121"/>
       <c r="J39" s="151" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="K39" s="121" t="s">
         <v>26</v>
@@ -12257,7 +12197,7 @@
     </row>
     <row r="40" spans="1:13" ht="51">
       <c r="A40" s="21" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B40" s="21"/>
       <c r="D40" s="130">
@@ -12267,26 +12207,26 @@
         <v>1</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="H40" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/PECO_0007102","PECO_0007102")</f>
         <v>PECO_0007102</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J40" s="74" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="K40" s="82" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12.75">
@@ -12304,7 +12244,7 @@
       <c r="G41" s="21"/>
       <c r="H41" s="91"/>
       <c r="I41" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J41" s="85" t="s">
         <v>34</v>
@@ -12316,7 +12256,7 @@
     </row>
     <row r="42" spans="1:13" ht="38.25">
       <c r="A42" s="21" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B42" s="21"/>
       <c r="D42" s="130">
@@ -12327,21 +12267,21 @@
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="H42" s="91"/>
       <c r="I42" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J42" s="89"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="38.25">
       <c r="A43" s="21" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B43" s="21"/>
       <c r="D43" s="130">
@@ -12351,40 +12291,40 @@
         <v>1</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="H43" s="91"/>
       <c r="I43" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J43" s="89"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="97" customFormat="1" ht="25.5">
       <c r="B44" s="167" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C44" s="141"/>
       <c r="D44" s="142">
         <v>1</v>
       </c>
       <c r="E44" s="143" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F44" s="140" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="G44" s="140"/>
       <c r="H44" s="144"/>
       <c r="I44" s="140"/>
       <c r="J44" s="149" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="K44" s="152" t="s">
         <v>26</v>
@@ -12394,13 +12334,13 @@
     </row>
     <row r="45" spans="1:13" s="97" customFormat="1" ht="12.75">
       <c r="B45" s="170" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
       </c>
       <c r="E45" s="137" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F45" s="109"/>
       <c r="G45" s="109"/>
@@ -12417,7 +12357,7 @@
     </row>
     <row r="46" spans="1:13" ht="89.25">
       <c r="B46" s="95" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D46" s="130">
         <v>1</v>
@@ -12426,28 +12366,28 @@
         <v>1</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="H46" s="91"/>
       <c r="I46" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J46" s="74" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="K46" s="82" t="s">
         <v>26</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="B47" s="95" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D47" s="130">
         <v>1</v>
@@ -12456,7 +12396,7 @@
         <v>41</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="G47" s="21">
         <v>96</v>
@@ -12471,7 +12411,7 @@
     </row>
     <row r="48" spans="1:13" ht="25.5">
       <c r="B48" s="95" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D48" s="130">
         <v>1</v>
@@ -12480,27 +12420,27 @@
         <v>41</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="H48" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000283","UO_0000283")</f>
         <v>UO_0000283</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J48" s="89"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="89.25">
       <c r="B49" s="95" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D49" s="130">
         <v>1</v>
@@ -12509,27 +12449,27 @@
         <v>41</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="H49" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000026","AGRO_00000026")</f>
         <v>AGRO_00000026</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J49" s="89"/>
       <c r="K49" s="21"/>
       <c r="L49" s="21" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="B50" s="95" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D50" s="130">
         <v>1</v>
@@ -12538,7 +12478,7 @@
         <v>41</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="91" t="str">
@@ -12546,7 +12486,7 @@
         <v>c_8412</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J50" s="89" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000325","AGRO_00000325")</f>
@@ -12561,7 +12501,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="B51" s="80" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D51" s="130">
         <v>1</v>
@@ -12576,7 +12516,7 @@
         <v>65</v>
       </c>
       <c r="J51" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K51" s="82" t="s">
         <v>26</v>
@@ -12585,7 +12525,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="B52" s="80" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D52" s="130">
         <v>1</v>
@@ -12600,7 +12540,7 @@
         <v>65</v>
       </c>
       <c r="J52" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K52" s="82" t="s">
         <v>26</v>
@@ -12609,7 +12549,7 @@
     </row>
     <row r="53" spans="1:13" ht="25.5">
       <c r="B53" s="80" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D53" s="130">
         <v>1</v>
@@ -12618,14 +12558,14 @@
         <v>41</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="H53" s="91"/>
       <c r="I53" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J53" s="89"/>
       <c r="K53" s="21"/>
@@ -12633,7 +12573,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="B54" s="80" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D54" s="130">
         <v>1</v>
@@ -12642,17 +12582,17 @@
         <v>41</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="H54" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000040","AGRO_00000040")</f>
         <v>AGRO_00000040</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J54" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/AGRO_00000036","AGRO_00000036")</f>
@@ -12667,7 +12607,7 @@
     </row>
     <row r="55" spans="1:13" ht="25.5">
       <c r="B55" s="80" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D55" s="130">
         <v>1</v>
@@ -12676,27 +12616,27 @@
         <v>41</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="H55" s="107" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/CHEBI_91238","CHEBI_91238")</f>
         <v>CHEBI_91238</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J55" s="89"/>
       <c r="K55" s="21"/>
       <c r="L55" s="21" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="B56" s="80" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D56" s="130">
         <v>1</v>
@@ -12720,7 +12660,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" s="127" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B57" s="121"/>
       <c r="C57" s="125"/>
@@ -12728,14 +12668,14 @@
         <v>1</v>
       </c>
       <c r="E57" s="138" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F57" s="121"/>
       <c r="G57" s="121"/>
       <c r="H57" s="139"/>
       <c r="I57" s="121"/>
       <c r="J57" s="149" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="K57" s="152" t="s">
         <v>26</v>
@@ -12745,16 +12685,16 @@
     </row>
     <row r="58" spans="1:13" ht="63.75">
       <c r="B58" s="79" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="D58" s="130">
         <v>1</v>
       </c>
       <c r="E58" s="133" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="91"/>
@@ -12770,22 +12710,22 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="B59" s="21" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D59" s="130">
         <v>1</v>
       </c>
       <c r="E59" s="133" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="91"/>
       <c r="I59" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J59" s="74" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="K59" s="82" t="s">
         <v>26</v>
@@ -12794,7 +12734,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="B60" s="21" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D60" s="130">
         <v>1</v>
@@ -12809,7 +12749,7 @@
         <v>65</v>
       </c>
       <c r="J60" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K60" s="82" t="s">
         <v>26</v>
@@ -12818,7 +12758,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="B61" s="21" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D61" s="130">
         <v>1</v>
@@ -12833,7 +12773,7 @@
         <v>65</v>
       </c>
       <c r="J61" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="K61" s="82" t="s">
         <v>26</v>
@@ -12842,7 +12782,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="B62" s="21" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D62" s="130">
         <v>1</v>
@@ -12854,7 +12794,7 @@
       <c r="G62" s="21"/>
       <c r="H62" s="91"/>
       <c r="I62" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J62" s="85" t="s">
         <v>34</v>
@@ -12867,21 +12807,21 @@
     <row r="63" spans="1:13" ht="25.5">
       <c r="A63" s="97"/>
       <c r="B63" s="167" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C63" s="141"/>
       <c r="D63" s="142">
         <v>1</v>
       </c>
       <c r="E63" s="143" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F63" s="140"/>
       <c r="G63" s="140"/>
       <c r="H63" s="144"/>
       <c r="I63" s="140"/>
       <c r="J63" s="149" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="K63" s="152" t="s">
         <v>26</v>
@@ -12892,32 +12832,36 @@
     <row r="64" spans="1:13" s="97" customFormat="1" ht="12.75">
       <c r="B64" s="170"/>
       <c r="C64" s="169" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D64" s="136">
         <v>1</v>
       </c>
       <c r="E64" s="137" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F64" s="109"/>
       <c r="G64" s="109"/>
       <c r="H64" s="110"/>
       <c r="I64" s="109"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="172"/>
+      <c r="J64" s="171" t="s">
+        <v>395</v>
+      </c>
+      <c r="K64" s="172" t="s">
+        <v>77</v>
+      </c>
       <c r="L64" s="109"/>
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="B65" s="21"/>
       <c r="C65" s="80" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D65" s="130">
         <v>1</v>
       </c>
       <c r="E65" s="133" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -12928,111 +12872,115 @@
       <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:13" ht="12.75">
-      <c r="B66" s="21"/>
-      <c r="C66" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="D66" s="130">
+      <c r="A66" s="127" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="121"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="131">
         <v>1</v>
       </c>
-      <c r="E66" s="133" t="s">
-        <v>353</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
+      <c r="E66" s="138"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="121"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="149" t="s">
+        <v>317</v>
+      </c>
+      <c r="K66" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" s="121"/>
+      <c r="M66" s="125"/>
     </row>
     <row r="67" spans="1:13" ht="12.75">
-      <c r="B67" s="21"/>
-      <c r="C67" s="80" t="s">
-        <v>284</v>
+      <c r="B67" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="D67" s="130">
         <v>1</v>
       </c>
       <c r="E67" s="133" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="91"/>
-      <c r="I67" s="21"/>
+      <c r="I67" s="21" t="s">
+        <v>324</v>
+      </c>
       <c r="J67" s="89"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
     </row>
-    <row r="68" spans="1:13" ht="12.75">
-      <c r="A68" s="127" t="s">
-        <v>287</v>
-      </c>
-      <c r="B68" s="121"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="131">
+    <row r="68" spans="1:13" ht="25.5">
+      <c r="B68" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="130">
         <v>1</v>
       </c>
-      <c r="E68" s="138"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="149" t="s">
-        <v>337</v>
-      </c>
-      <c r="K68" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="L68" s="121"/>
-      <c r="M68" s="125"/>
+      <c r="E68" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="J68" s="89"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="B69" s="21" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D69" s="130">
         <v>1</v>
       </c>
       <c r="E69" s="133" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="91"/>
       <c r="I69" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J69" s="89"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
     </row>
-    <row r="70" spans="1:13" ht="25.5">
+    <row r="70" spans="1:13" ht="38.25">
       <c r="B70" s="21" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="D70" s="130">
         <v>1</v>
       </c>
       <c r="E70" s="133" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
       <c r="H70" s="91"/>
       <c r="I70" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J70" s="89"/>
       <c r="K70" s="21"/>
       <c r="L70" s="21" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="B71" s="21" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D71" s="130">
         <v>1</v>
@@ -13044,15 +12992,15 @@
       <c r="G71" s="21"/>
       <c r="H71" s="91"/>
       <c r="I71" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J71" s="89"/>
       <c r="K71" s="21"/>
       <c r="L71" s="21"/>
     </row>
-    <row r="72" spans="1:13" ht="38.25">
+    <row r="72" spans="1:13" ht="12.75">
       <c r="B72" s="21" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="D72" s="130">
         <v>1</v>
@@ -13064,56 +13012,36 @@
       <c r="G72" s="21"/>
       <c r="H72" s="91"/>
       <c r="I72" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="J72" s="89"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21" t="s">
-        <v>363</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="J72" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" s="21"/>
     </row>
     <row r="73" spans="1:13" ht="12.75">
-      <c r="B73" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="D73" s="130">
-        <v>1</v>
-      </c>
-      <c r="E73" s="133" t="s">
-        <v>41</v>
-      </c>
+      <c r="B73" s="21"/>
+      <c r="E73" s="133"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
       <c r="H73" s="91"/>
-      <c r="I73" s="21" t="s">
-        <v>344</v>
-      </c>
+      <c r="I73" s="21"/>
       <c r="J73" s="89"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
     </row>
     <row r="74" spans="1:13" ht="12.75">
-      <c r="B74" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" s="130">
-        <v>1</v>
-      </c>
-      <c r="E74" s="133" t="s">
-        <v>41</v>
-      </c>
+      <c r="B74" s="21"/>
+      <c r="E74" s="133"/>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
       <c r="H74" s="91"/>
-      <c r="I74" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="J74" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="K74" s="82" t="s">
-        <v>26</v>
-      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="21"/>
       <c r="L74" s="21"/>
     </row>
     <row r="75" spans="1:13" ht="12.75">
@@ -13154,178 +13082,67 @@
       <c r="E78" s="133"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
-      <c r="H78" s="91"/>
       <c r="I78" s="21"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="90"/>
+      <c r="M78" s="21"/>
     </row>
     <row r="79" spans="1:13" ht="12.75">
-      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
       <c r="E79" s="133"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="89"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-    </row>
-    <row r="80" spans="1:13" ht="38.25">
-      <c r="B80" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E80" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I80" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" s="92" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/STATO_0000264","STATO_00000264")</f>
-        <v>STATO_00000264</v>
-      </c>
-      <c r="K80" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="M80" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" ht="38.25">
-      <c r="C81" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" s="133" t="s">
-        <v>53</v>
-      </c>
+      <c r="J79" s="92"/>
+      <c r="K79" s="90"/>
+    </row>
+    <row r="80" spans="1:13" ht="12.75">
+      <c r="B80" s="21"/>
+      <c r="E80" s="133"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="92"/>
+      <c r="K80" s="90"/>
+      <c r="L80" s="21"/>
+    </row>
+    <row r="81" spans="2:12" ht="12.75">
+      <c r="B81" s="21"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="21"/>
       <c r="J81" s="92"/>
       <c r="K81" s="90"/>
-    </row>
-    <row r="82" spans="2:12" ht="25.5">
-      <c r="B82" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H82" s="91" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/CHEBI_25555","CHEBI_25555")</f>
-        <v>CHEBI_25555</v>
-      </c>
-      <c r="I82" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" s="92" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/OBI_0000750","OBI_0000750")</f>
-        <v>OBI_0000750</v>
-      </c>
-      <c r="K82" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="L82" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" ht="38.25">
-      <c r="B83" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E83" s="133" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G83" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H83" s="88" t="str">
-        <f>HYPERLINK("http://www.cropontology.org/terms/CO_321:0000236/","CO_321:0000236")</f>
-        <v>CO_321:0000236</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" s="92" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/OBI_0000751","OBI_0000751")</f>
-        <v>OBI_0000751</v>
-      </c>
-      <c r="K83" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="L83" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" ht="25.5">
-      <c r="B84" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" ht="25.5">
-      <c r="C85" s="21" t="s">
-        <v>121</v>
-      </c>
+      <c r="L81" s="21"/>
+    </row>
+    <row r="82" spans="2:12" ht="12.75">
+      <c r="B82" s="21"/>
+      <c r="E82" s="133"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="2:12" ht="12.75">
+      <c r="C83" s="21"/>
+      <c r="E83" s="133"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="2:12" ht="12.75">
+      <c r="C84" s="21"/>
+      <c r="E84" s="133"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+    </row>
+    <row r="85" spans="2:12" ht="12.75">
       <c r="E85" s="133"/>
-      <c r="G85" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H85" s="91" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/ENVO_00003869","ENVO_00003869")</f>
-        <v>ENVO_00003869</v>
-      </c>
-      <c r="I85" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" s="93" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/BFO_0000040","BFO_0000040")</f>
-        <v>BFO_0000040</v>
-      </c>
-      <c r="K85" s="21" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="86" spans="2:12" ht="12.75">
-      <c r="C86" s="21" t="s">
-        <v>130</v>
-      </c>
       <c r="E86" s="133"/>
-      <c r="G86" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H86" s="91" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/NCIT_C54647","NCIT_C54647")</f>
-        <v>NCIT_C54647</v>
-      </c>
-      <c r="I86" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" s="91" t="str">
-        <f>HYPERLINK("http://purl.obolibrary.org/obo/NCIT_C25515","NCIT_C25515")</f>
-        <v>NCIT_C25515</v>
-      </c>
-      <c r="K86" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="L86" s="21" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="87" spans="2:12" ht="12.75">
       <c r="E87" s="133"/>
@@ -16245,12 +16062,6 @@
     </row>
     <row r="1059" spans="5:5" ht="12.75">
       <c r="E1059" s="133"/>
-    </row>
-    <row r="1060" spans="5:5" ht="12.75">
-      <c r="E1060" s="133"/>
-    </row>
-    <row r="1061" spans="5:5" ht="12.75">
-      <c r="E1061" s="133"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16284,8 +16095,8 @@
     <hyperlink ref="K57" r:id="rId28" xr:uid="{3A9FACDE-14B1-439B-A7C5-8C1A227B2A2D}"/>
     <hyperlink ref="J63" r:id="rId29" xr:uid="{AFEC3A18-7043-4A8F-BAFE-D927B5075546}"/>
     <hyperlink ref="K63" r:id="rId30" xr:uid="{C37AE610-A544-4453-8176-7A77CF618515}"/>
-    <hyperlink ref="J68" r:id="rId31" xr:uid="{0BDF52B4-3420-461A-B518-B0E23B02C2F7}"/>
-    <hyperlink ref="K68" r:id="rId32" xr:uid="{D6BF0386-5FFB-4A9F-B79A-0FEA56440BA8}"/>
+    <hyperlink ref="J66" r:id="rId31" xr:uid="{0BDF52B4-3420-461A-B518-B0E23B02C2F7}"/>
+    <hyperlink ref="K66" r:id="rId32" xr:uid="{D6BF0386-5FFB-4A9F-B79A-0FEA56440BA8}"/>
     <hyperlink ref="K5" r:id="rId33" xr:uid="{1910A3BC-006C-46B5-B534-3AECE257BE42}"/>
     <hyperlink ref="J41" r:id="rId34" xr:uid="{60A48112-6F36-4E42-A536-1073880C3187}"/>
     <hyperlink ref="K41" r:id="rId35" xr:uid="{3B95E229-441F-404B-AA47-65EECE820FAB}"/>
@@ -16309,8 +16120,8 @@
     <hyperlink ref="K61" r:id="rId53" xr:uid="{275B0AE5-4F09-4CC0-8B4F-48257A67D6DE}"/>
     <hyperlink ref="J62" r:id="rId54" xr:uid="{017709CA-2B15-4DD9-8E0F-279353645BA5}"/>
     <hyperlink ref="K62" r:id="rId55" xr:uid="{74D2506A-F057-4C30-90A7-B9090E18C25A}"/>
-    <hyperlink ref="J74" r:id="rId56" xr:uid="{B7E00CE3-40E5-44C7-843A-D9EDA7149B23}"/>
-    <hyperlink ref="K74" r:id="rId57" xr:uid="{D6AB2B85-E49C-4698-BC95-7AD832D58F11}"/>
+    <hyperlink ref="J72" r:id="rId56" xr:uid="{B7E00CE3-40E5-44C7-843A-D9EDA7149B23}"/>
+    <hyperlink ref="K72" r:id="rId57" xr:uid="{D6AB2B85-E49C-4698-BC95-7AD832D58F11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId58"/>
@@ -16354,7 +16165,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
@@ -16486,7 +16297,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="173" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>25</v>
@@ -16598,7 +16409,7 @@
     </row>
     <row r="7" spans="1:26" ht="76.5">
       <c r="A7" s="16" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C7" s="32">
         <v>1</v>
@@ -16607,10 +16418,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -16635,14 +16446,14 @@
     </row>
     <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="50" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F8" s="50">
         <v>8</v>
@@ -16672,7 +16483,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="118" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B9" s="117"/>
       <c r="C9" s="119"/>
@@ -16702,7 +16513,7 @@
     </row>
     <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="19" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C10" s="63">
         <v>1</v>
@@ -16711,10 +16522,10 @@
         <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="G10" s="53" t="str">
         <f>HYPERLINK("http://www.geonames.org/7293719/harpenden.html","7293719")</f>
@@ -16724,7 +16535,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>25</v>
@@ -16748,7 +16559,7 @@
     </row>
     <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="19" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C11" s="63">
         <v>1</v>
@@ -16757,10 +16568,10 @@
         <v>41</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G11" s="55" t="str">
         <f>HYPERLINK("http://www.geonames.org/2647043","2647043")</f>
@@ -16770,7 +16581,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="J11" s="54" t="s">
         <v>25</v>
@@ -16794,7 +16605,7 @@
     </row>
     <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="19" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C12" s="63">
         <v>1</v>
@@ -16804,7 +16615,7 @@
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="56" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="G12" s="55" t="str">
         <f>HYPERLINK("http://www.geonames.org/2635167","2635167")</f>
@@ -16812,7 +16623,7 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="53" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="J12" s="54" t="s">
         <v>25</v>
@@ -16836,7 +16647,7 @@
     </row>
     <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="50" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
@@ -16845,7 +16656,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F13" s="57">
         <v>51.809460000000001</v>
@@ -16880,7 +16691,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="16" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C14" s="32">
         <v>1</v>
@@ -16889,7 +16700,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F14" s="58">
         <v>-0.37301000000000001</v>
@@ -16924,28 +16735,28 @@
     </row>
     <row r="15" spans="1:26" ht="102">
       <c r="A15" s="16" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/NCIT_C73492","NCIT_C73492")</f>
         <v>NCIT_C73492</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -16966,7 +16777,7 @@
     </row>
     <row r="16" spans="1:26" ht="12.75">
       <c r="A16" s="16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C16" s="32">
         <v>1</v>
@@ -16975,7 +16786,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F16" s="16">
         <v>130</v>
@@ -17010,7 +16821,7 @@
     </row>
     <row r="17" spans="1:26" ht="12.75">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C17" s="32">
         <v>1</v>
@@ -17019,7 +16830,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
@@ -17054,7 +16865,7 @@
     </row>
     <row r="18" spans="1:26" ht="38.25">
       <c r="A18" s="16" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C18" s="32">
         <v>1</v>
@@ -17063,10 +16874,10 @@
         <v>41</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16" t="s">
@@ -17098,7 +16909,7 @@
     </row>
     <row r="19" spans="1:26" ht="12.75">
       <c r="A19" s="118" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B19" s="117"/>
       <c r="C19" s="119"/>
@@ -17128,7 +16939,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75">
       <c r="A20" s="50" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
@@ -17143,7 +16954,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
@@ -17164,7 +16975,7 @@
     </row>
     <row r="21" spans="1:26" ht="12.75">
       <c r="A21" s="50" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -17201,10 +17012,10 @@
     </row>
     <row r="22" spans="1:26" ht="12.75">
       <c r="A22" s="50" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
@@ -17242,14 +17053,14 @@
     <row r="23" spans="1:26" ht="12.75">
       <c r="A23" s="50"/>
       <c r="B23" s="50" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F23" s="50">
         <v>250</v>
@@ -17263,7 +17074,7 @@
         <v>NCIT_C25167</v>
       </c>
       <c r="J23" s="50" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="K23" s="50"/>
       <c r="L23" s="50"/>
@@ -17285,14 +17096,14 @@
     <row r="24" spans="1:26" ht="12.75">
       <c r="A24" s="50"/>
       <c r="B24" s="50" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F24" s="50">
         <v>280</v>
@@ -17309,7 +17120,7 @@
         <v>UO_0000185</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K24" s="50"/>
       <c r="L24" s="50"/>
@@ -17330,14 +17141,14 @@
     </row>
     <row r="25" spans="1:26" ht="12.75">
       <c r="A25" s="145" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B25" s="147"/>
       <c r="C25" s="146">
         <v>1</v>
       </c>
       <c r="D25" s="146" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E25" s="164"/>
       <c r="F25" s="147"/>
@@ -17364,7 +17175,7 @@
     </row>
     <row r="26" spans="1:26" ht="12.75">
       <c r="B26" s="50" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C26" s="32">
         <v>1</v>
@@ -17373,24 +17184,24 @@
         <v>41</v>
       </c>
       <c r="E26" s="126" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="G26" s="173" t="str">
         <f>HYPERLINK("http://aims.fao.org/aos/agrovoc/c_6161","c_6161")</f>
         <v>c_6161</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="I26" s="74"/>
       <c r="J26" s="82" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="18"/>
@@ -17411,7 +17222,7 @@
     <row r="27" spans="1:26" ht="12.75">
       <c r="A27" s="50"/>
       <c r="B27" s="50" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C27" s="32">
         <v>1</v>
@@ -17420,7 +17231,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="126" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="F27" s="50">
         <v>1981</v>
@@ -17430,7 +17241,7 @@
         <v>65</v>
       </c>
       <c r="I27" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="J27" s="82" t="s">
         <v>26</v>
@@ -17455,7 +17266,7 @@
     <row r="28" spans="1:26" ht="12.75">
       <c r="A28" s="50"/>
       <c r="B28" s="50" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C28" s="32">
         <v>1</v>
@@ -17464,7 +17275,7 @@
         <v>41</v>
       </c>
       <c r="E28" s="126" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="F28" s="50">
         <v>2010</v>
@@ -17474,7 +17285,7 @@
         <v>65</v>
       </c>
       <c r="I28" s="74" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="J28" s="82" t="s">
         <v>26</v>
@@ -17499,7 +17310,7 @@
     <row r="29" spans="1:26" ht="12.75">
       <c r="A29" s="50"/>
       <c r="B29" s="50" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C29" s="32">
         <v>1</v>
@@ -17508,7 +17319,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="126" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="F29" s="50">
         <v>511</v>
@@ -17539,7 +17350,7 @@
     <row r="30" spans="1:26" ht="12.75">
       <c r="A30" s="50"/>
       <c r="B30" s="50" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C30" s="32">
         <v>1</v>
@@ -17548,7 +17359,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="126" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F30" s="50">
         <v>349</v>
@@ -17562,7 +17373,7 @@
         <v>STATO_0000150</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="K30" s="50"/>
       <c r="L30" s="50"/>
@@ -17584,7 +17395,7 @@
     <row r="31" spans="1:26" ht="12.75">
       <c r="A31" s="50"/>
       <c r="B31" s="50" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
@@ -17593,7 +17404,7 @@
         <v>41</v>
       </c>
       <c r="E31" s="126" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="F31" s="50">
         <v>698</v>
@@ -17607,7 +17418,7 @@
         <v>STATO_0000151</v>
       </c>
       <c r="J31" s="50" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="K31" s="50"/>
       <c r="L31" s="50"/>
@@ -17629,7 +17440,7 @@
     <row r="32" spans="1:26" ht="12.75">
       <c r="A32" s="50"/>
       <c r="B32" s="50" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C32" s="32">
         <v>1</v>
@@ -17638,10 +17449,10 @@
         <v>41</v>
       </c>
       <c r="E32" s="126" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="G32" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000016","UO_0000016")</f>
@@ -17653,7 +17464,7 @@
       <c r="I32" s="173"/>
       <c r="J32" s="50"/>
       <c r="K32" s="50" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L32" s="50"/>
       <c r="M32" s="18"/>
@@ -17673,7 +17484,7 @@
     </row>
     <row r="33" spans="1:26" ht="12.75">
       <c r="A33" s="118" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B33" s="117"/>
       <c r="C33" s="119"/>
@@ -17703,7 +17514,7 @@
     </row>
     <row r="34" spans="1:26" ht="12.75">
       <c r="A34" s="50" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="32">
@@ -17713,10 +17524,10 @@
         <v>41</v>
       </c>
       <c r="E34" s="126" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="G34" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/ENVO_00002248","ENVO_00002248")</f>
@@ -17730,10 +17541,10 @@
         <v>ENVO_00001998</v>
       </c>
       <c r="J34" s="50" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="K34" s="50" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="L34" s="50"/>
       <c r="M34" s="18"/>
@@ -17753,7 +17564,7 @@
     </row>
     <row r="35" spans="1:26" ht="25.5">
       <c r="A35" s="50" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="32">
@@ -17763,7 +17574,7 @@
         <v>41</v>
       </c>
       <c r="E35" s="126" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
@@ -17793,12 +17604,12 @@
     </row>
     <row r="36" spans="1:26" ht="12.75">
       <c r="A36" s="145" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B36" s="147"/>
       <c r="C36" s="146"/>
       <c r="D36" s="146" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E36" s="162"/>
       <c r="F36" s="147"/>
@@ -17825,7 +17636,7 @@
     </row>
     <row r="37" spans="1:26" ht="25.5">
       <c r="B37" s="50" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C37" s="32">
         <v>1</v>
@@ -17834,10 +17645,10 @@
         <v>41</v>
       </c>
       <c r="E37" s="126" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="G37" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/EO_0007053","EO_0007053")</f>
@@ -17849,7 +17660,7 @@
       <c r="I37" s="30"/>
       <c r="J37" s="50"/>
       <c r="K37" s="50" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="L37" s="50"/>
       <c r="M37" s="18"/>
@@ -17870,7 +17681,7 @@
     <row r="38" spans="1:26" ht="25.5">
       <c r="A38" s="50"/>
       <c r="B38" s="50" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C38" s="32">
         <v>1</v>
@@ -17879,7 +17690,7 @@
         <v>41</v>
       </c>
       <c r="E38" s="126" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="F38" s="50">
         <v>0</v>
@@ -17893,7 +17704,7 @@
         <v>STATO_0000150</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="K38" s="50"/>
       <c r="L38" s="50"/>
@@ -17915,7 +17726,7 @@
     <row r="39" spans="1:26" ht="25.5">
       <c r="A39" s="50"/>
       <c r="B39" s="50" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C39" s="32">
         <v>1</v>
@@ -17924,7 +17735,7 @@
         <v>41</v>
       </c>
       <c r="E39" s="126" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="F39" s="50">
         <v>30</v>
@@ -17938,7 +17749,7 @@
         <v>STATO_0000151</v>
       </c>
       <c r="J39" s="50" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="K39" s="50"/>
       <c r="L39" s="50"/>
@@ -17960,7 +17771,7 @@
     <row r="40" spans="1:26" ht="12.75">
       <c r="A40" s="50"/>
       <c r="B40" s="50" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C40" s="32">
         <v>1</v>
@@ -17969,10 +17780,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="126" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="G40" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000015","UO_0000015")</f>
@@ -17983,7 +17794,7 @@
       </c>
       <c r="I40" s="28"/>
       <c r="K40" s="50" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L40" s="50"/>
       <c r="M40" s="18"/>
@@ -18004,7 +17815,7 @@
     <row r="41" spans="1:26" ht="12.75">
       <c r="A41" s="50"/>
       <c r="B41" s="50" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C41" s="32">
         <v>1</v>
@@ -18013,14 +17824,14 @@
         <v>41</v>
       </c>
       <c r="E41" s="126" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="F41" s="50" t="b">
         <v>0</v>
       </c>
       <c r="G41" s="50"/>
       <c r="H41" s="50" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="50"/>
@@ -18044,7 +17855,7 @@
     <row r="42" spans="1:26" ht="12.75">
       <c r="A42" s="50"/>
       <c r="B42" s="50" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C42" s="32">
         <v>1</v>
@@ -18053,14 +17864,14 @@
         <v>41</v>
       </c>
       <c r="E42" s="126" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="F42" s="50" t="b">
         <v>0</v>
       </c>
       <c r="G42" s="50"/>
       <c r="H42" s="50" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="50"/>
@@ -18084,7 +17895,7 @@
     <row r="43" spans="1:26" ht="12.75">
       <c r="A43" s="50"/>
       <c r="B43" s="50" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C43" s="32">
         <v>1</v>
@@ -18093,7 +17904,7 @@
         <v>41</v>
       </c>
       <c r="E43" s="126" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="F43" s="50">
         <v>1980</v>
@@ -18124,7 +17935,7 @@
     <row r="44" spans="1:26" ht="12.75">
       <c r="A44" s="50"/>
       <c r="B44" s="50" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C44" s="32">
         <v>1</v>
@@ -18133,7 +17944,7 @@
         <v>41</v>
       </c>
       <c r="E44" s="126" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="F44" s="50">
         <v>23</v>
@@ -18164,7 +17975,7 @@
     <row r="45" spans="1:26" ht="12.75">
       <c r="A45" s="50"/>
       <c r="B45" s="50" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C45" s="32">
         <v>1</v>
@@ -18173,7 +17984,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="126" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F45" s="50">
         <v>21</v>
@@ -18187,7 +17998,7 @@
         <v>STATO_0000150</v>
       </c>
       <c r="J45" s="50" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="K45" s="50"/>
       <c r="L45" s="50"/>
@@ -18209,7 +18020,7 @@
     <row r="46" spans="1:26" ht="12.75">
       <c r="A46" s="50"/>
       <c r="B46" s="50" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C46" s="32">
         <v>1</v>
@@ -18218,7 +18029,7 @@
         <v>41</v>
       </c>
       <c r="E46" s="126" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="F46" s="50">
         <v>27</v>
@@ -18232,7 +18043,7 @@
         <v>STATO_0000151</v>
       </c>
       <c r="J46" s="50" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="K46" s="50"/>
       <c r="L46" s="50"/>
@@ -18254,7 +18065,7 @@
     <row r="47" spans="1:26" ht="12.75">
       <c r="A47" s="50"/>
       <c r="B47" s="50" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C47" s="32">
         <v>1</v>
@@ -18263,10 +18074,10 @@
         <v>41</v>
       </c>
       <c r="E47" s="126" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="G47" s="173" t="str">
         <f>HYPERLINK("http://purl.obolibrary.org/obo/UO_0000187","UO_0000187")</f>
@@ -18278,7 +18089,7 @@
       <c r="I47" s="30"/>
       <c r="J47" s="50"/>
       <c r="K47" s="50" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L47" s="50"/>
       <c r="M47" s="18"/>
@@ -45501,7 +45312,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -45513,7 +45324,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -45530,16 +45341,16 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
@@ -45552,12 +45363,12 @@
         <v>25</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="14" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C3" s="96">
         <v>1</v>
@@ -45566,14 +45377,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="J3" s="54" t="s">
         <v>25</v>
@@ -45581,7 +45392,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="14" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C4" s="96">
         <v>1</v>
@@ -45595,7 +45406,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="J4" s="54" t="s">
         <v>25</v>
@@ -45603,7 +45414,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="14" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C5" s="96">
         <v>1</v>
@@ -45612,14 +45423,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>25</v>
@@ -45627,7 +45438,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="68" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C6" s="96">
         <v>1</v>
@@ -45662,7 +45473,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>25</v>
@@ -45700,7 +45511,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
@@ -45712,7 +45523,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="14" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C10" s="96">
         <v>1</v>
@@ -45725,7 +45536,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>25</v>
@@ -45733,7 +45544,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="50" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C11" s="32">
         <v>1</v>
@@ -45742,12 +45553,12 @@
         <v>41</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I11" s="39" t="s">
         <v>59</v>
@@ -45758,7 +45569,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="50" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C12" s="32">
         <v>1</v>
@@ -45767,7 +45578,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
@@ -45775,7 +45586,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>26</v>
@@ -45783,7 +45594,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="50" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
@@ -45792,7 +45603,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -45800,7 +45611,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>26</v>
@@ -45808,7 +45619,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="B14" s="50" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C14" s="32">
         <v>1</v>
@@ -45817,7 +45628,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
@@ -45825,7 +45636,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>26</v>
@@ -45833,7 +45644,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="B15" s="50" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C15" s="32">
         <v>1</v>
@@ -45842,7 +45653,7 @@
         <v>41</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
@@ -45850,7 +45661,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="71" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>26</v>
@@ -45928,7 +45739,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -45940,7 +45751,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -45960,16 +45771,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15">
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="19" t="s">
@@ -45984,16 +45795,16 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="19" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="19" t="s">
@@ -46009,16 +45820,16 @@
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="14" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="19" t="s">
@@ -46031,7 +45842,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -46068,7 +45879,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="14" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
@@ -46147,10 +45958,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C9" s="32">
         <v>1</v>
@@ -46159,10 +45970,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I9" s="39" t="s">
         <v>59</v>
@@ -46173,7 +45984,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="B10" s="50" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32">
         <v>1</v>
@@ -46182,13 +45993,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>26</v>
@@ -46196,7 +46007,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="B11" s="50" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C11" s="32">
         <v>1</v>
@@ -46205,13 +46016,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="H11" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>26</v>
@@ -46219,7 +46030,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="B12" s="50" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C12" s="32">
         <v>1</v>
@@ -46228,13 +46039,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>26</v>
@@ -46242,7 +46053,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="B13" s="50" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
@@ -46251,13 +46062,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="71" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>26</v>
@@ -49293,7 +49104,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -49313,7 +49124,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D2" s="15">
         <v>1</v>
@@ -49330,10 +49141,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="19" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>21</v>
@@ -49351,10 +49162,10 @@
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="14" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="19" t="s">
@@ -49382,7 +49193,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>25</v>
@@ -49393,7 +49204,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="B6" s="14" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -49407,7 +49218,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>25</v>
@@ -49416,37 +49227,37 @@
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="J7" s="54" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="B8" s="19" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="52">
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>

--- a/LTE Metadata Checklist.xlsx
+++ b/LTE Metadata Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\schemas\MILAX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{328B5587-A2C0-4FCC-9642-F833E704B323}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50B1D79D-835A-49E6-A66B-8A2BC95EA647}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="1" r:id="rId1"/>
@@ -2438,9 +2438,9 @@
   </sheetPr>
   <dimension ref="A1:AD1015"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11177,10 +11177,10 @@
   </sheetPr>
   <dimension ref="A1:M1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
